--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52284BEF-5D48-49F6-AAE6-BA7F2948CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -318,7 +317,7 @@
   </si>
   <si>
     <t>AcctCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">業務科目代號  </t>
@@ -389,80 +388,81 @@
   </si>
   <si>
     <t>暫收款－火險保費</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>InsuRenew 火險單續保檔</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TMI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+有細目者，另計記細目為&lt;空白&gt;為加總至科子目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>區隔帳冊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubBookCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode,AcSubBookCode,BranchNo,CurrencyCode,AcNoCode,AcSubCode,AcDtlCode,AcDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,AcSubBookCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:全公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acmainAcBookCodeRange2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,AcSubBookCode,AcNoCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>select sum("TotInsuPrem")
 from "InsuRenew" 
-where "InsuYearMonth" &gt;= 202003 -- 轉換資料日年月
+where "InsuYearMonth" &gt;= 202003 -- 轉換資料日年月(月初轉換則為前一月)
   AND "RenewCode" = 2
   AND "AcDate" &gt;=  0</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdAcCode會計科子細目設定檔
-有細目者，另計記細目為&lt;空白&gt;為加總至科子目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>區隔帳冊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcSubBookCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode,AcSubBookCode,BranchNo,CurrencyCode,AcNoCode,AcSubCode,AcDtlCode,AcDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,AcSubBookCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>000:全公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳記號=2－準銷帳科目(入銷帳在核心系統與放款系統分開處理)，ex：暫付及待結轉帳項－火險保費，需將核心出帳的借方金額寫入，餘額才可正確計算。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>00A:傳統帳冊
-201:利變年金帳冊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acmainAcBookCodeRange2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,AcSubBookCode,AcNoCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.業務銷帳科目如以維護方式寫入則由核心出帳。ex.暫付火險費借方
+2.CdAcCode.ClsChkFlag日結餘額檢查=1－不過餘額(借貸分由放款及核心系統出帳)時，借、貸金額同時寫入核心貸、借欄，餘額歸零。Ex.暫收款－非核心資金運用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,13 +538,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="標楷體"/>
@@ -595,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -655,43 +648,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,7 +656,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -713,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,13 +745,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -807,10 +763,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,41 +775,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -870,11 +817,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="4"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 4" xfId="5"/>
+    <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,23 +912,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1017,23 +947,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,11 +1122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1228,10 +1141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1243,8 +1156,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1256,12 +1169,12 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>39</v>
@@ -1271,10 +1184,10 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="11"/>
@@ -1282,10 +1195,10 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
@@ -1295,10 +1208,10 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
@@ -1308,10 +1221,10 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4"/>
       <c r="D7" s="14"/>
       <c r="E7" s="11"/>
@@ -1359,7 +1272,7 @@
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1367,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>12</v>
@@ -1380,7 +1293,7 @@
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1481,7 +1394,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,7 +1538,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1642,8 +1555,8 @@
         <v>8</v>
       </c>
       <c r="F23" s="30"/>
-      <c r="G23" s="44" t="s">
-        <v>105</v>
+      <c r="G23" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1665,7 +1578,7 @@
       <c r="F24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
@@ -1684,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="45"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
@@ -1705,7 +1618,7 @@
       <c r="F26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
@@ -1818,8 +1731,7 @@
       <c r="F32" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G23:G26"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
@@ -1838,10 +1750,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -1892,10 +1804,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1922,13 +1834,13 @@
     </row>
     <row r="7" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1939,11 +1851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1951,7 +1863,7 @@
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="72.44140625" customWidth="1"/>
+    <col min="4" max="4" width="111.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,7 +1880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="34" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="34" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>96</v>
       </c>
@@ -1979,11 +1891,11 @@
         <v>95</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002D7E3E-E40B-42A8-87C4-AC76175CCCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -457,11 +458,19 @@
 2.CdAcCode.ClsChkFlag日結餘額檢查=1－不過餘額(借貸分由放款及核心系統出帳)時，借、貸金額同時寫入核心貸、借欄，餘額歸零。Ex.暫收款－非核心資金運用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>acmainAcBookCodeRange3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -669,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,10 +697,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -703,9 +712,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -718,9 +724,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,19 +775,16 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,11 +817,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="4"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="5"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,6 +912,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -947,6 +964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1122,29 +1156,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="17" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="15" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1156,82 +1190,82 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1250,485 +1284,485 @@
       <c r="F8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <v>3</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="39">
         <v>3</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="43" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="27">
         <v>4</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <v>3</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <v>11</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>5</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <v>2</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="27">
         <v>8</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="27">
         <v>16</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>10</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <v>16</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="27">
         <v>8</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="15">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="27">
         <v>16</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <v>8</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="27">
         <v>16</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="27">
         <v>8</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="27">
         <v>16</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="27">
         <v>8</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="27">
         <v>16</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <v>19</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="29">
         <v>3</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="28" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+    <row r="28" spans="1:7" s="26" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>20</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="30">
         <v>6</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="31"/>
+      <c r="G28" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="15">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="15">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="27">
         <v>6</v>
       </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
+      <c r="A32" s="36">
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="27">
         <v>6</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1750,17 +1784,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1843,6 +1877,17 @@
         <v>107</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1867,30 +1912,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="34" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002D7E3E-E40B-42A8-87C4-AC76175CCCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5CD01-0625-4FB6-8F3B-7B412B1FE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -837,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -877,9 +877,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,26 +912,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,26 +947,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1159,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1787,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5CD01-0625-4FB6-8F3B-7B412B1FE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53436A1A-7252-4C5F-B2E9-C870EAF9AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -465,6 +461,9 @@
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1173,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>39</v>
@@ -1213,7 +1212,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="6"/>
@@ -1272,7 +1271,7 @@
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1280,10 +1279,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>12</v>
@@ -1293,7 +1292,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1393,7 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1445,7 +1444,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>41</v>
@@ -1556,7 +1555,7 @@
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,10 +1624,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>12</v>
@@ -1638,7 +1637,7 @@
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="26" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>41</v>
@@ -1659,7 +1658,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1673,7 +1672,7 @@
         <v>63</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
@@ -1683,10 +1682,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>12</v>
@@ -1701,13 +1700,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" s="16" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
@@ -1717,10 +1716,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>12</v>
@@ -1785,73 +1784,73 @@
         <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1879,30 +1878,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
